--- a/experiment result/64_0.9_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.9_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003019372382201178</v>
+        <v>0.008167176829354361</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004379043289557204</v>
+        <v>0.0005803249110552985</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008017135705668782</v>
+        <v>0.008960161463218768</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004034442024090009</v>
+        <v>0.002324688024014592</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008308832552887347</v>
+        <v>0.001294420067262959</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004294371355169057</v>
+        <v>0.004822987332833851</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006705330299040831</v>
+        <v>0.0005296995014779305</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.005417225536095775</v>
+        <v>0.02167444412600594</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007749297931728606</v>
+        <v>0.006189406669174254</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.006932880719650557</v>
+        <v>0.02933865138579813</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.006705068189027734</v>
+        <v>0.02491112069035996</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01050183212205318</v>
+        <v>0.048799463149898</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.004953130537609049</v>
+        <v>0.001308397558500306</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.007744960907639237</v>
+        <v>0.00589343033608036</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.012166128949915</v>
+        <v>0.03547508379210303</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.006436440667814231</v>
+        <v>0.0128367299393416</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.009011273220480785</v>
+        <v>0.01261938704222374</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003929918954928014</v>
+        <v>0.006381483772499278</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00990110992984994</v>
+        <v>0.02400956353451868</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.009213044895292666</v>
+        <v>0.01658282478215779</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006889133348729934</v>
+        <v>0.002327310007522232</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01249000822354454</v>
+        <v>0.01310069314628559</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.006570590771617824</v>
+        <v>0.01024136182094033</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002374238960229338</v>
+        <v>0.000541156996260878</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.009806420274723964</v>
+        <v>0.00515629460900551</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006805082006805067</v>
+        <v>0.01401649568720157</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00535926129851408</v>
+        <v>0.004967563021364316</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006194618560006553</v>
+        <v>0.006846118395225624</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.005777916115993869</v>
+        <v>0.006706943864721799</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006651667607909371</v>
+        <v>0.01067888289955888</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003112561096455419</v>
+        <v>0.0002863128159375136</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01148321036297631</v>
+        <v>0.005381682569495982</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02432163513890034</v>
+        <v>0.01462160632530277</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.006420335112771328</v>
+        <v>0.009077029455906951</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.007171497258773582</v>
+        <v>0.01051503165633191</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.007464901496959058</v>
+        <v>0.003964953346438807</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.005300081035348545</v>
+        <v>0.008028882131660992</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01126512208562365</v>
+        <v>0.03986485934602145</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.006172183506727038</v>
+        <v>0.006710567079074354</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005750189247505357</v>
+        <v>0.02001441259048809</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.007102985048128539</v>
+        <v>0.02830753380935739</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01014290903496205</v>
+        <v>0.009869618172051446</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.006839698024733179</v>
+        <v>0.003090616920491315</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.007064735329967391</v>
+        <v>0.0143435961338282</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.009932430434207842</v>
+        <v>0.01702274585820098</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01802602734306515</v>
+        <v>0.03900899024122965</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.008907425475988558</v>
+        <v>0.007149214311426987</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.001893103732005494</v>
+        <v>0.001514753406375682</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01102214687476994</v>
+        <v>0.007755946401103167</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004616414281020978</v>
+        <v>0.0005179015051659545</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.006963727627118249</v>
+        <v>0.02225843498169385</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.007112602131594486</v>
+        <v>0.003451138497745942</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0008049405513550498</v>
+        <v>1.746002168082349e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.001915739886643737</v>
+        <v>0.0002114344811666432</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.005544527153945613</v>
+        <v>0.004150996587302576</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007958934656176229</v>
+        <v>0.005306363036451356</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00381182657386981</v>
+        <v>0.001290655035896469</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007702798651907078</v>
+        <v>0.01181682068385242</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003941718393254448</v>
+        <v>0.008883788954394517</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.002339329798738081</v>
+        <v>0.002050442855459926</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.002202393229483004</v>
+        <v>0.0009273731366705602</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.002025393117373557</v>
+        <v>0.004788439044480964</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.008356072678822157</v>
+        <v>0.01633267361493567</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008770123393140688</v>
+        <v>0.0008983020894952759</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.007670136710758673</v>
+        <v>0.0209594867380368</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.007603364903063524</v>
+        <v>0.009901719847891221</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.008381434867233015</v>
+        <v>0.006922809734364291</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.006309124761264491</v>
+        <v>0.004348589340163115</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01091713048481775</v>
+        <v>0.001346930050994093</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005822380171802531</v>
+        <v>0.003845004556302079</v>
       </c>
     </row>
   </sheetData>
